--- a/target/test-classes/testData/LoginTests.xlsx
+++ b/target/test-classes/testData/LoginTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CC0930-38E8-5A49-8875-989B78F6DDDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6A5237-7721-D740-802B-AFF6F2C277C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19847@yopmail.com</t>
+    <t>lauren.weiniger.19848@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -11525,6 +11525,9 @@
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{2D49EF3C-EDD1-E048-AF30-C55440546AEB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/target/test-classes/testData/LoginTests.xlsx
+++ b/target/test-classes/testData/LoginTests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwitech/Documents/GITHUB/SAFE-IOS-Staging/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6A5237-7721-D740-802B-AFF6F2C277C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED4F26A-1BA6-DE40-A00B-0A1D26F8F0C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>lauren.weiniger.19848@yopmail.com</t>
+    <t>lauren.weiniger.19853@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -11525,9 +11525,6 @@
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{2D49EF3C-EDD1-E048-AF30-C55440546AEB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>